--- a/tests/data/desired/multisummarystreamreport.xlsx
+++ b/tests/data/desired/multisummarystreamreport.xlsx
@@ -289,7 +289,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>960.0</v>
+        <v>39.0</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0.03903903903903904</v>
@@ -315,7 +315,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0.9927611168562565</v>
@@ -354,7 +354,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.967741935483871</v>
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>960.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0.0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>1.0</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>1.0</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.007238883143743537</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.9927611168562565</v>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1.0</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>960.0</v>
+        <v>32.0</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>0.03225806451612903</v>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>1.0</v>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>0.967741935483871</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>960.0</v>
+        <v>32.0</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>0.03225806451612903</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>1.0</v>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>0.967741935483871</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.007238883143743537</v>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.9927611168562565</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1.0</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>960.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0.0</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>1.0</v>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>960.0</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>1.0</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>960.0</v>
+        <v>39.0</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0.03903903903903904</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.0</v>
+        <v>960.0</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0.9927611168562565</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.0</v>
+        <v>960.0</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.967741935483871</v>

--- a/tests/data/desired/multisummarystreamreport.xlsx
+++ b/tests/data/desired/multisummarystreamreport.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -32,10 +32,163 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
-      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -43,7 +196,9 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -52,17 +207,7 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
@@ -72,7 +217,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="22"/>
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,11 +238,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="10" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -123,112 +298,112 @@
       </c>
     </row>
     <row r="1">
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Inner</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Limit [%]</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Limit [rows]</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>Limit [%]</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>Limit [rows]</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" s="8" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H16" s="8" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" s="8" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -236,12 +411,12 @@
       <c r="B3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -249,12 +424,12 @@
       <c r="B4" t="n">
         <v>604.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.6046046046046046</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -262,15 +437,15 @@
       <c r="B5" t="n">
         <v>395.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="10" t="n">
         <v>0.3953953953953954</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="10" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -278,12 +453,12 @@
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.960960960960961</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -291,12 +466,12 @@
       <c r="B7" t="n">
         <v>39.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="10" t="n">
         <v>0.03903903903903904</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -304,12 +479,12 @@
       <c r="B8" t="n">
         <v>967.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="10" t="n">
         <v>0.9679679679679679</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -317,12 +492,12 @@
       <c r="B9" t="n">
         <v>960.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="10" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -330,12 +505,12 @@
       <c r="B10" t="n">
         <v>7.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="10" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -343,12 +518,12 @@
       <c r="B11" t="n">
         <v>992.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="10" t="n">
         <v>0.992992992992993</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -356,12 +531,12 @@
       <c r="B12" t="n">
         <v>960.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="10" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -369,12 +544,12 @@
       <c r="B13" t="n">
         <v>32.0</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="10" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="11" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -382,12 +557,12 @@
       <c r="H3" t="n">
         <v>960.0</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -395,12 +570,12 @@
       <c r="H4" t="n">
         <v>604.0</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="12" t="n">
         <v>0.6291666666666667</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -408,12 +583,12 @@
       <c r="H5" t="n">
         <v>356.0</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="12" t="n">
         <v>0.37083333333333335</v>
       </c>
     </row>
     <row r="6">
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -421,12 +596,12 @@
       <c r="H6" t="n">
         <v>960.0</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -434,12 +609,12 @@
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -447,12 +622,12 @@
       <c r="H8" t="n">
         <v>960.0</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -460,12 +635,12 @@
       <c r="H9" t="n">
         <v>960.0</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -473,12 +648,12 @@
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -486,12 +661,12 @@
       <c r="H11" t="n">
         <v>960.0</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -499,12 +674,12 @@
       <c r="H12" t="n">
         <v>960.0</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="12" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -512,12 +687,12 @@
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="13" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -525,12 +700,12 @@
       <c r="B17" t="n">
         <v>967.0</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="13" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -538,12 +713,12 @@
       <c r="B18" t="n">
         <v>604.0</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="14" t="n">
         <v>0.6246122026887281</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="13" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -551,12 +726,12 @@
       <c r="B19" t="n">
         <v>363.0</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="14" t="n">
         <v>0.375387797311272</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="13" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -564,12 +739,12 @@
       <c r="B20" t="n">
         <v>960.0</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="14" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="13" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -577,15 +752,15 @@
       <c r="B21" t="n">
         <v>7.0</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="14" t="n">
         <v>0.007238883143743537</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="14" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="13" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -593,12 +768,12 @@
       <c r="B22" t="n">
         <v>967.0</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="13" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -606,12 +781,12 @@
       <c r="B23" t="n">
         <v>960.0</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="14" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="13" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -619,12 +794,12 @@
       <c r="B24" t="n">
         <v>7.0</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="14" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="13" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -632,12 +807,12 @@
       <c r="B25" t="n">
         <v>960.0</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="14" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="13" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -645,12 +820,12 @@
       <c r="B26" t="n">
         <v>960.0</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="13" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -658,12 +833,12 @@
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="14" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G17" s="15" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -671,12 +846,12 @@
       <c r="H17" t="n">
         <v>992.0</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G18" s="15" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -684,12 +859,12 @@
       <c r="H18" t="n">
         <v>604.0</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="16" t="n">
         <v>0.6088709677419355</v>
       </c>
     </row>
     <row r="19">
-      <c r="G19" s="2" t="inlineStr">
+      <c r="G19" s="15" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -697,12 +872,12 @@
       <c r="H19" t="n">
         <v>388.0</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="16" t="n">
         <v>0.3911290322580645</v>
       </c>
     </row>
     <row r="20">
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" s="15" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -710,12 +885,12 @@
       <c r="H20" t="n">
         <v>960.0</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="16" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="21">
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" s="15" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -723,12 +898,12 @@
       <c r="H21" t="n">
         <v>32.0</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="16" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="22">
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="15" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -736,12 +911,12 @@
       <c r="H22" t="n">
         <v>960.0</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="16" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="23">
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" s="15" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -749,12 +924,12 @@
       <c r="H23" t="n">
         <v>960.0</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" s="15" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -762,12 +937,12 @@
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="15" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -775,12 +950,12 @@
       <c r="H25" t="n">
         <v>992.0</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="16" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G26" s="15" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -788,12 +963,12 @@
       <c r="H26" t="n">
         <v>960.0</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="16" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="27">
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" s="15" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -801,7 +976,7 @@
       <c r="H27" t="n">
         <v>32.0</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="16" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
@@ -829,91 +1004,91 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>Limit [%]</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>Limit [rows]</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="19" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="19" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="19" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="18" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" s="18" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="18" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" s="18" t="inlineStr">
         <is>
           <t>Limit [%]</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" s="18" t="inlineStr">
         <is>
           <t>Limit [rows]</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" s="17" t="inlineStr">
         <is>
           <t>Summary of Rows</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H16" s="17" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" s="17" t="inlineStr">
         <is>
           <t>Relative</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G17" s="21" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -921,12 +1096,12 @@
       <c r="H17" t="n">
         <v>992.0</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="22" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G18" s="21" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -934,12 +1109,12 @@
       <c r="H18" t="n">
         <v>960.0</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="22" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="19">
-      <c r="G19" s="2" t="inlineStr">
+      <c r="G19" s="21" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -947,12 +1122,12 @@
       <c r="H19" t="n">
         <v>32.0</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="22" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="20">
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" s="21" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -960,12 +1135,12 @@
       <c r="H20" t="n">
         <v>960.0</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="22" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="21">
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G21" s="21" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -973,12 +1148,12 @@
       <c r="H21" t="n">
         <v>32.0</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="22" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="22">
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="21" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -986,12 +1161,12 @@
       <c r="H22" t="n">
         <v>960.0</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="22" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="23">
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" s="21" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -999,12 +1174,12 @@
       <c r="H23" t="n">
         <v>960.0</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="22" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G24" s="21" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1012,12 +1187,12 @@
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="22" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="21" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1025,12 +1200,12 @@
       <c r="H25" t="n">
         <v>992.0</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="22" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G26" s="21" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1038,12 +1213,12 @@
       <c r="H26" t="n">
         <v>960.0</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="22" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="27">
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" s="21" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1051,12 +1226,12 @@
       <c r="H27" t="n">
         <v>32.0</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="22" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="23" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -1064,12 +1239,12 @@
       <c r="B17" t="n">
         <v>967.0</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="24" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="23" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -1077,12 +1252,12 @@
       <c r="B18" t="n">
         <v>960.0</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="24" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="23" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -1090,15 +1265,15 @@
       <c r="B19" t="n">
         <v>7.0</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="24" t="n">
         <v>0.007238883143743537</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="24" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="23" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -1106,12 +1281,12 @@
       <c r="B20" t="n">
         <v>960.0</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="24" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="23" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -1119,12 +1294,12 @@
       <c r="B21" t="n">
         <v>7.0</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="24" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="23" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -1132,12 +1307,12 @@
       <c r="B22" t="n">
         <v>967.0</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="24" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="23" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -1145,12 +1320,12 @@
       <c r="B23" t="n">
         <v>960.0</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="24" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="23" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1158,12 +1333,12 @@
       <c r="B24" t="n">
         <v>7.0</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="24" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="23" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1171,12 +1346,12 @@
       <c r="B25" t="n">
         <v>960.0</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="24" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="23" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1184,12 +1359,12 @@
       <c r="B26" t="n">
         <v>960.0</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="24" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="23" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1197,12 +1372,12 @@
       <c r="B27" t="n">
         <v>0.0</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="24" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="25" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -1210,12 +1385,12 @@
       <c r="H3" t="n">
         <v>960.0</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="26" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -1223,12 +1398,12 @@
       <c r="H4" t="n">
         <v>960.0</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="26" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="25" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -1236,12 +1411,12 @@
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -1249,12 +1424,12 @@
       <c r="H6" t="n">
         <v>960.0</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="26" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="25" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -1262,12 +1437,12 @@
       <c r="H7" t="n">
         <v>0.0</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" s="25" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -1275,12 +1450,12 @@
       <c r="H8" t="n">
         <v>960.0</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="26" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="25" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -1288,12 +1463,12 @@
       <c r="H9" t="n">
         <v>960.0</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="26" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="25" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1301,12 +1476,12 @@
       <c r="H10" t="n">
         <v>0.0</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="25" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1314,12 +1489,12 @@
       <c r="H11" t="n">
         <v>960.0</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="26" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G12" s="25" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1327,12 +1502,12 @@
       <c r="H12" t="n">
         <v>960.0</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="26" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="25" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1340,12 +1515,12 @@
       <c r="H13" t="n">
         <v>0.0</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>Total Rows</t>
         </is>
@@ -1353,12 +1528,12 @@
       <c r="B3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="28" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Equal Rows</t>
         </is>
@@ -1366,12 +1541,12 @@
       <c r="B4" t="n">
         <v>960.0</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="28" t="n">
         <v>0.960960960960961</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="27" t="inlineStr">
         <is>
           <t>Different Rows</t>
         </is>
@@ -1379,15 +1554,15 @@
       <c r="B5" t="n">
         <v>39.0</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="28" t="n">
         <v>0.03903903903903904</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="28" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="27" t="inlineStr">
         <is>
           <t>Matching Rows</t>
         </is>
@@ -1395,12 +1570,12 @@
       <c r="B6" t="n">
         <v>960.0</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="28" t="n">
         <v>0.960960960960961</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>Non-matching Rows</t>
         </is>
@@ -1408,12 +1583,12 @@
       <c r="B7" t="n">
         <v>39.0</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="28" t="n">
         <v>0.03903903903903904</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="27" t="inlineStr">
         <is>
           <t>(Source1) - Total Rows</t>
         </is>
@@ -1421,12 +1596,12 @@
       <c r="B8" t="n">
         <v>967.0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="28" t="n">
         <v>0.9679679679679679</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="27" t="inlineStr">
         <is>
           <t>(Source1) - Matching Rows</t>
         </is>
@@ -1434,12 +1609,12 @@
       <c r="B9" t="n">
         <v>960.0</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="28" t="n">
         <v>0.9927611168562565</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="27" t="inlineStr">
         <is>
           <t>(Source1) - Non-matching Rows</t>
         </is>
@@ -1447,12 +1622,12 @@
       <c r="B10" t="n">
         <v>7.0</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="28" t="n">
         <v>0.007238883143743537</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="27" t="inlineStr">
         <is>
           <t>(Source2) - Total Rows</t>
         </is>
@@ -1460,12 +1635,12 @@
       <c r="B11" t="n">
         <v>992.0</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="28" t="n">
         <v>0.992992992992993</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>(Source2) - Matching Rows</t>
         </is>
@@ -1473,12 +1648,12 @@
       <c r="B12" t="n">
         <v>960.0</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="28" t="n">
         <v>0.967741935483871</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>(Source2) - Non-matching Rows</t>
         </is>
@@ -1486,7 +1661,7 @@
       <c r="B13" t="n">
         <v>32.0</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="28" t="n">
         <v>0.03225806451612903</v>
       </c>
     </row>
